--- a/EXCEL_TRABAJADO/2023-2.xlsx
+++ b/EXCEL_TRABAJADO/2023-2.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gians\Desktop\dev\UNDC_AUTOMATIZACION\EXCEL_TRABAJADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F359F6-2A6C-4333-8ED0-3BB5A08284FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1167FEF-01AA-4B94-9A02-EBE9D6A0E015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="temp" sheetId="4" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId3"/>
-    <sheet name="items" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="items" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="306">
   <si>
     <t>N°</t>
   </si>
@@ -88,12 +87,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>AV</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -202,204 +195,12 @@
     <t>oauth2</t>
   </si>
   <si>
-    <t>F1.1 - 676 - INTRODUCCIÓN A LA AGRONOMÍA - 3172</t>
-  </si>
-  <si>
-    <t>F1.1 - 676 - INTRODUCCIÓN A LA AGRONOMÍA - 3178</t>
-  </si>
-  <si>
-    <t>CB.1 - 677 - MATEMÁTICA BÁSICA - 3170</t>
-  </si>
-  <si>
-    <t>CB.1 - 677 - MATEMÁTICA BÁSICA - 3176</t>
-  </si>
-  <si>
-    <t>CB.6 - 678 - BIOLOGÍA GENERAL - 3171</t>
-  </si>
-  <si>
-    <t>CB.6 - 678 - BIOLOGÍA GENERAL - 3177</t>
-  </si>
-  <si>
-    <t>FG.7 - 679 - COMUNICACIÓN - 3175</t>
-  </si>
-  <si>
-    <t>FG.7 - 679 - COMUNICACIÓN - 3181</t>
-  </si>
-  <si>
-    <t>FG.3 - 680 - METODOLOGÍA DEL TRABAJO UNIVERSITARIO - 3173</t>
-  </si>
-  <si>
-    <t>FG.3 - 680 - METODOLOGÍA DEL TRABAJO UNIVERSITARIO - 3179</t>
-  </si>
-  <si>
-    <t>FG.5 - 681 - CIUDADANÍA - 3174</t>
-  </si>
-  <si>
-    <t>FG.5 - 681 - CIUDADANÍA - 3180</t>
-  </si>
-  <si>
-    <t>F1.2 - 688 - AGROECOLOGÍA - 3184</t>
-  </si>
-  <si>
-    <t>F1.2 - 688 - AGROECOLOGÍA - 3190</t>
-  </si>
-  <si>
-    <t>F1.4 - 689 - BOTÁNICA SISTÉMICA - 3185</t>
-  </si>
-  <si>
-    <t>F1.4 - 689 - BOTÁNICA SISTÉMICA - 3191</t>
-  </si>
-  <si>
-    <t>CB.3 - 690 - ESTADÍSTICA - 3182</t>
-  </si>
-  <si>
-    <t>CB.3 - 690 - ESTADÍSTICA - 3188</t>
-  </si>
-  <si>
-    <t>CB.9 - 691 - QUÍMICA ORGÁNICA - 3183</t>
-  </si>
-  <si>
-    <t>CB.9 - 691 - QUÍMICA ORGÁNICA - 3189</t>
-  </si>
-  <si>
-    <t>FG.1 - 692 - INGLÉS TÉCNICO I - 3186</t>
-  </si>
-  <si>
-    <t>FG.1 - 692 - INGLÉS TÉCNICO I - 3192</t>
-  </si>
-  <si>
-    <t>FG.4 - 693 - LIDERAZGO Y EMPRENDIMIENTO - 3187</t>
-  </si>
-  <si>
-    <t>FG.4 - 693 - LIDERAZGO Y EMPRENDIMIENTO - 3193</t>
-  </si>
-  <si>
-    <t>AG91 - 599 - LEGUMINOSAS DE GRANO - 3220</t>
-  </si>
-  <si>
-    <t>AG91 - 599 - LEGUMINOSAS DE GRANO - 3227</t>
-  </si>
-  <si>
-    <t>AG95 - 603 - PASTOS Y FORRAJES - 3224</t>
-  </si>
-  <si>
-    <t>AG95 - 603 - PASTOS Y FORRAJES - 3231</t>
-  </si>
-  <si>
-    <t>AG96 - 604 - FITOPATOLOGÍA AGRÍCOLA - 3225</t>
-  </si>
-  <si>
-    <t>AG96 - 604 - FITOPATOLOGÍA AGRÍCOLA - 3232</t>
-  </si>
-  <si>
-    <t>AG92 - 622 - ZOOTECNIA GENERAL - 3221</t>
-  </si>
-  <si>
-    <t>AG92 - 622 - ZOOTECNIA GENERAL - 3228</t>
-  </si>
-  <si>
-    <t>AG93 - 623 - MANEJO Y CONSERVACIÓN DE SUELOS - 3222</t>
-  </si>
-  <si>
-    <t>AG93 - 623 - MANEJO Y CONSERVACIÓN DE SUELOS - 3229</t>
-  </si>
-  <si>
-    <t>AG94 - 624 - SEMINARIO DE TESIS I - 3223</t>
-  </si>
-  <si>
-    <t>AG94 - 624 - SEMINARIO DE TESIS I - 3230</t>
-  </si>
-  <si>
-    <t>AG99 - 633 - MANEJO DE VIVEROS - 3226</t>
-  </si>
-  <si>
-    <t>AG101 - 636 - MALEZAS - 3233</t>
-  </si>
-  <si>
-    <t>AG51 - 574 - MECANIZACIÓN AGRÍCOLA - 3195</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
-    <t>AG51 - 574 - MECANIZACIÓN AGRÍCOLA - 3202</t>
-  </si>
-  <si>
-    <t>AG52 - 575 - FISIOLOGÍA VEGETAL - 3196</t>
-  </si>
-  <si>
-    <t>AG52 - 575 - FISIOLOGÍA VEGETAL - 3203</t>
-  </si>
-  <si>
-    <t>AG53 - 576 - GENÉTICA VEGETAL - 3197</t>
-  </si>
-  <si>
-    <t>AG53 - 576 - GENÉTICA VEGETAL - 3204</t>
-  </si>
-  <si>
-    <t>AG54 - 577 - METEOROLOGÍA - 3198</t>
-  </si>
-  <si>
-    <t>AG54 - 577 - METEOROLOGÍA - 3205</t>
-  </si>
-  <si>
-    <t>AG55 - 578 - MICROBIOLOGÍA - 3199</t>
-  </si>
-  <si>
-    <t>AG55 - 578 - MICROBIOLOGÍA - 3206</t>
-  </si>
-  <si>
-    <t>EG19 - 580 - CONSTITUCIÓN Y DERECHOS HUMANOS - 3194</t>
-  </si>
-  <si>
-    <t>EG19 - 580 - CONSTITUCIÓN Y DERECHOS HUMANOS - 3201</t>
-  </si>
-  <si>
-    <t>AG56 - 611 - EDAFOLOGIA - 3200</t>
-  </si>
-  <si>
-    <t>AG56 - 611 - EDAFOLOGIA - 3207</t>
-  </si>
-  <si>
-    <t>AG61 - 581 - AGROTECNÍA - 3209</t>
-  </si>
-  <si>
     <t>VI</t>
   </si>
   <si>
-    <t>AG62 - 582 - FERTILIDAD DEL SUELO - 3210</t>
-  </si>
-  <si>
-    <t>AG63 - 583 - PROPAGACIÓN DE PLANTAS - 3211</t>
-  </si>
-  <si>
-    <t>AG64 - 584 - ENTOMOLOGÍA GENERAL - 3212</t>
-  </si>
-  <si>
-    <t>AG65 - 585 - TOPOGRAFÍA - 3213</t>
-  </si>
-  <si>
-    <t>EG20 - 586 - PENSAMIENTO POLÍTICO CONTEMPORÁNEO - 3208</t>
-  </si>
-  <si>
-    <t>AG71 - 587 - MEJORAMIENTO GENÉTICO Y BIOTECNOLOGÍA - 3214</t>
-  </si>
-  <si>
-    <t>AG72 - 588 - MÉTODOS ESTADÍSTICOS DE INVESTIGACIÓN - 3215</t>
-  </si>
-  <si>
-    <t>AG73 - 589 - MACROECONOMÍA - 3216</t>
-  </si>
-  <si>
-    <t>AG74 - 590 - HIDROLOGÍA Y SISTEMAS DE RIEGO - 3217</t>
-  </si>
-  <si>
-    <t>AG75 - 591 - CEREALES Y PSEUDOCEREALES - 3218</t>
-  </si>
-  <si>
-    <t>AG76 - 592 - FITOPATOLOGÍA GENERAL - 3219</t>
-  </si>
-  <si>
     <t>IMAGEN UNIRSE GRUPO WHATSAPP</t>
   </si>
   <si>
@@ -418,27 +219,12 @@
     <t>X</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>EG12 - 550 - MATEMÁTICA BÁSICA - 3234</t>
-  </si>
-  <si>
-    <t>ÑAÑEZ JAVIER NANCY</t>
-  </si>
-  <si>
     <t>COAQUIRA INCACARI ROBERTO</t>
   </si>
   <si>
-    <t>ÑIQUE ALVAREZ MANUEL ALFREDO</t>
-  </si>
-  <si>
     <t>VEGA CANALES FELIPE</t>
   </si>
   <si>
-    <t>ORE CAYLLAHUA CARLOS FERNANDO</t>
-  </si>
-  <si>
     <t>ORTEGA GOMERO SANTIAGO ALEJANDRO</t>
   </si>
   <si>
@@ -448,27 +234,12 @@
     <t>AYBAR PEVE LEANDRO JOEL</t>
   </si>
   <si>
-    <t>TOLEDO GUERRA JUAN CARLOS ALFREDO</t>
-  </si>
-  <si>
     <t>BERROCAL CHUMBIAUCA JULIO ANTONIO</t>
   </si>
   <si>
-    <t>REYNOSO PALPA JENNY ROCIO</t>
-  </si>
-  <si>
-    <t>CABRERA VIGIL CARLOS EUSEBIO</t>
-  </si>
-  <si>
-    <t>SESSAREGO DÁVILA EMMANUEL ALEXANDER</t>
-  </si>
-  <si>
     <t>ALVAREZ BERNAOLA LUIS ARMANDO</t>
   </si>
   <si>
-    <t>ALIAGA BARRERA ISAAC NOLBERTO</t>
-  </si>
-  <si>
     <t>TAIPE CANCHO MARIO HUMBERTO</t>
   </si>
   <si>
@@ -478,12 +249,6 @@
     <t>MONTERO RAVELO ALEXEI ARMANDO</t>
   </si>
   <si>
-    <t>MARCA FLORES OMAR</t>
-  </si>
-  <si>
-    <t>RIVERA SALINAS ELIZABETH</t>
-  </si>
-  <si>
     <t>VALDERRAMA ROMERO ANTONIO SALOMON</t>
   </si>
   <si>
@@ -493,397 +258,688 @@
     <t>DOCENTE</t>
   </si>
   <si>
-    <t>BELLODAS CUBAS JOSE DOLORES</t>
-  </si>
-  <si>
-    <t>ORELLANA UZHO CARLOS MANUEL</t>
-  </si>
-  <si>
-    <t>PARIONA VILLAVERDE CONSTANTINO</t>
+    <t>F1.3 - 682 - CULTURA AMBIENTAL - 3567</t>
+  </si>
+  <si>
+    <t>MANANA</t>
+  </si>
+  <si>
+    <t>F1.3 - 682 - CULTURA AMBIENTAL - 3575</t>
+  </si>
+  <si>
+    <t>TARDE</t>
+  </si>
+  <si>
+    <t>CB.2 - 683 - ANÁLISIS MATEMÁTICO - 3563</t>
+  </si>
+  <si>
+    <t>MORAN REQUENA HUGO SAMUEL</t>
+  </si>
+  <si>
+    <t>CB.2 - 683 - ANÁLISIS MATEMÁTICO - 3571</t>
+  </si>
+  <si>
+    <t>CB.4 - 684 - FÍSICA - 3564</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>CARDENAS RUIZ DARIO ULDARICO</t>
+  </si>
+  <si>
+    <t>CB.4 - 684 - FÍSICA - 3569</t>
+  </si>
+  <si>
+    <t>MAÑANA</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>CB.4 - 684 - FÍSICA - 3572</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>CB.4 - 684 - FÍSICA - 3577</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>CB.5 - 685 - QUÍMICA GENERAL - 3565</t>
+  </si>
+  <si>
+    <t>NAVARRETE VELARDE RAUL ANTONIO</t>
+  </si>
+  <si>
+    <t>CB.5 - 685 - QUÍMICA GENERAL - 3570</t>
+  </si>
+  <si>
+    <t>CB.5 - 685 - QUÍMICA GENERAL - 3573</t>
+  </si>
+  <si>
+    <t>CB.5 - 685 - QUÍMICA GENERAL - 3578</t>
+  </si>
+  <si>
+    <t>CB.7 - 686 - BOTÁNICA GENERAL - 3566</t>
+  </si>
+  <si>
+    <t>CB.7 - 686 - BOTÁNICA GENERAL - 3574</t>
+  </si>
+  <si>
+    <t>FG.6 - 687 - INFORMÁTICA - 3568</t>
+  </si>
+  <si>
+    <t>ZAVALA QUISPE JULIO CESAR</t>
+  </si>
+  <si>
+    <t>FG.6 - 687 - INFORMÁTICA - 3576</t>
+  </si>
+  <si>
+    <t>F1.8 - 935 - ESTADÍSTICA AGRÍCOLA - 3582</t>
+  </si>
+  <si>
+    <t>CASTILLO SANTA MARIA BESSY</t>
+  </si>
+  <si>
+    <t>F1.8 - 935 - ESTADÍSTICA AGRÍCOLA - 3589</t>
+  </si>
+  <si>
+    <t>F1.11 - 936 - AGROMETEOROLOGÍA - 3580</t>
+  </si>
+  <si>
+    <t>QUISPE GONZALES GALLEGOS MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>F1.11 - 936 - AGROMETEOROLOGÍA - 3587</t>
+  </si>
+  <si>
+    <t>F1.27 - 937 - ECONOMÍA AGRÍCOLA - 3581</t>
+  </si>
+  <si>
+    <t>MEJIA SANCHEZ MILUSSJA IVETTE</t>
+  </si>
+  <si>
+    <t>F1.27 - 937 - ECONOMÍA AGRÍCOLA - 3588</t>
+  </si>
+  <si>
+    <t>CB.8 - 938 - BIOQUÍMICA GENERAL - 3579</t>
+  </si>
+  <si>
+    <t>LEVANO SARAVIA EMILY BRISEIDA</t>
+  </si>
+  <si>
+    <t>CB.8 - 938 - BIOQUÍMICA GENERAL - 3585</t>
+  </si>
+  <si>
+    <t>CB.8 - 938 - BIOQUÍMICA GENERAL - 3586</t>
+  </si>
+  <si>
+    <t>CB.8 - 938 - BIOQUÍMICA GENERAL - 3592</t>
+  </si>
+  <si>
+    <t>FG.2 - 939 - INGLÉS TÉCNICO II - 3583</t>
+  </si>
+  <si>
+    <t>FG.2 - 939 - INGLÉS TÉCNICO II - 3590</t>
+  </si>
+  <si>
+    <t>IF.1 - 940 - METODOLOGÍA DE INVESTIGACIÓN CIENTÍFICA I - 3584</t>
+  </si>
+  <si>
+    <t>IF.1 - 940 - METODOLOGÍA DE INVESTIGACIÓN CIENTÍFICA I - 3591</t>
+  </si>
+  <si>
+    <t>AG61 - 581 - AGROTECNÍA - 3594</t>
+  </si>
+  <si>
+    <t>AG61 - 581 - AGROTECNÍA - 3600</t>
+  </si>
+  <si>
+    <t>AG62 - 582 - FERTILIDAD DEL SUELO - 3595</t>
+  </si>
+  <si>
+    <t>AG62 - 582 - FERTILIDAD DEL SUELO - 3601</t>
+  </si>
+  <si>
+    <t>AG63 - 583 - PROPAGACIÓN DE PLANTAS - 3596</t>
+  </si>
+  <si>
+    <t>AG63 - 583 - PROPAGACIÓN DE PLANTAS - 3602</t>
+  </si>
+  <si>
+    <t>AG64 - 584 - ENTOMOLOGÍA GENERAL - 3597</t>
+  </si>
+  <si>
+    <t>MATOS LIZANA JULIO CESAR</t>
+  </si>
+  <si>
+    <t>AG64 - 584 - ENTOMOLOGÍA GENERAL - 3603</t>
+  </si>
+  <si>
+    <t>AG65 - 585 - TOPOGRAFÍA - 3598</t>
+  </si>
+  <si>
+    <t>AG65 - 585 - TOPOGRAFÍA - 3604</t>
+  </si>
+  <si>
+    <t>EG20 - 586 - PENSAMIENTO POLÍTICO CONTEMPORÁNEO - 3593</t>
+  </si>
+  <si>
+    <t>EG20 - 586 - PENSAMIENTO POLÍTICO CONTEMPORÁNEO - 3599</t>
+  </si>
+  <si>
+    <t>AG71 - 587 - MEJORAMIENTO GENÉTICO Y BIOTECNOLOGÍA - 3605</t>
+  </si>
+  <si>
+    <t>AG72 - 588 - MÉTODOS ESTADÍSTICOS DE INVESTIGACIÓN - 3606</t>
+  </si>
+  <si>
+    <t>AG73 - 589 - MACROECONOMÍA - 3607</t>
+  </si>
+  <si>
+    <t>AG74 - 590 - HIDROLOGÍA Y SISTEMAS DE RIEGO - 3608</t>
+  </si>
+  <si>
+    <t>DAMIAN SALAZAR ROJAS</t>
+  </si>
+  <si>
+    <t>AG75 - 591 - CEREALES Y PSEUDOCEREALES - 3609</t>
+  </si>
+  <si>
+    <t>AG76 - 592 - FITOPATOLOGÍA GENERAL - 3610</t>
+  </si>
+  <si>
+    <t>AG76 - 592 - FITOPATOLOGÍA GENERAL - 3611</t>
+  </si>
+  <si>
+    <t>AG81 - 593 - RAICES Y TUBÉRCULOS - 3612</t>
+  </si>
+  <si>
+    <t>AG82 - 594 - OLERICULTURA - 3613</t>
+  </si>
+  <si>
+    <t>AG83 - 595 - FRUTICULTURA - 3614</t>
+  </si>
+  <si>
+    <t>AG86 - 598 - ENTOMOLOGÍA AGRÍCOLA - 3617</t>
+  </si>
+  <si>
+    <t>AG84 - 620 - METODOLOGÍA DE INVESTIGACIÓN CIENTÍFICA - 3615</t>
+  </si>
+  <si>
+    <t>AG85 - 621 - PRODUCCIÓN DE SEMILLAS - 3616</t>
+  </si>
+  <si>
+    <t>AG105 - 605 - FORMULACIÓN Y EVALUACIÓN DE PROYECTOS AGRÍCOLAS - 3618</t>
+  </si>
+  <si>
+    <t>AG105 - 605 - FORMULACIÓN Y EVALUACIÓN DE PROYECTOS AGRÍCOLAS - 3625</t>
+  </si>
+  <si>
+    <t>AG108 - 608 - EXTENSIÓN AGRARIA - 3621</t>
+  </si>
+  <si>
+    <t>PEREZ CASAS EVELIN LISSET</t>
+  </si>
+  <si>
+    <t>AG108 - 608 - EXTENSIÓN AGRARIA - 3628</t>
+  </si>
+  <si>
+    <t>AG106 - 626 - MANEJO INTEGRADO DE PLAGAS Y ENFERMEDADES - 3619</t>
+  </si>
+  <si>
+    <t>AG106 - 626 - MANEJO INTEGRADO DE PLAGAS Y ENFERMEDADES - 3626</t>
+  </si>
+  <si>
+    <t>AG107 - 627 - SEMINARIO DE TESIS II - 3620</t>
+  </si>
+  <si>
+    <t>AG107 - 627 - SEMINARIO DE TESIS II - 3627</t>
+  </si>
+  <si>
+    <t>AG109 - 628 - NUTRICIÓN Y ALIMENTACIÓN ANIMAL - 3622</t>
+  </si>
+  <si>
+    <t>AG109 - 628 - NUTRICIÓN Y ALIMENTACIÓN ANIMAL - 3629</t>
+  </si>
+  <si>
+    <t>AG110 - 629 - CONTROL BIOLÓGICO DE PLAGAS Y ENFERMEDADES - 3623</t>
+  </si>
+  <si>
+    <t>AG110 - 629 - CONTROL BIOLÓGICO DE PLAGAS Y ENFERMEDADES - 3630</t>
+  </si>
+  <si>
+    <t>AG116 - 644 - AGRICULTURA ORGÁNICA Y CERTIFICACIONES - 3624</t>
+  </si>
+  <si>
+    <t>AG116 - 644 - AGRICULTURA ORGÁNICA Y CERTIFICACIONES - 3631</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/JchYrqGwKkWLujWFnDUtsj</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/L4CyDc2pd1bJBBF34aYwD5</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/HpUuQraY9tcCNsQiyALnSw</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/LZ6wrDJKIDSJKe8pqe7o8z</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/CxU4NcL5RHtCZA6egRisCu</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/Di66Vh0WBj5FbTEiehzkIA</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/Lji1bCPCHmV6CYBIXLlQ0h</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/HYs7dXiW1Zd3J1DKibSnQz</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/J8Dh9s65Dy4JC4bH0vyWcs</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/F1VhFOodf3E8vxiqhNeTRM</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/HQCDKXo1UXQ9JeVYoq8PG7</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/LDqsIdJ6pqF6RxBM5BrSlL</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/CtI1BaHO7Y34ugkkFShpFn</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/LyL1Pkn8kv79kzw17aZBql</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/BE5eQgcBFBR5CbdugGogvp</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/F1B1d1Ldll50XK5U6wucRp</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/J31tLHGO8YBDQit6FpsgiE</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/G9Xnj9ovmqb3qZlRDYr08h</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/FUCzaGsDOKk2st4NbQICgr</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/E6Wfk58tnI00nLN2YX6GWD</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/DuDSM96WkiZJHNZ1RHj3sM</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/DBahsJK8EC0KthGYehsEJN</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/BVPsEVVszDM6KpiJlCASyL</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/F0fnPN3FvFgAPbMx2TkXOJ</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/IVdrI033tQN8T7di7zokuG</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/G7bnVcaTT8v40NZXa48Kpr</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/Ewyc987MbHj5GZzPUiSnCk</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/FqVR75qRi4Y60U1a3sC3Zi</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/GzBPlUhjAp0I4hhB8BO4nm</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/ItT73ctRJFaJaqfLcceNGm</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/GJUrENdUQ0Y25ocd7GWHMZ</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/CmvjsWYgCJ72G753PEz1jZ</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/HZyVebwrJQU2u1Omm7CMg1</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/GFLqjh6YcBo3arH9UyS4bQ</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/DrEi5Y7cTLJH6LKsmj13KP</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/JO92KbpllIQB8mvShvJt93</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/ICy1ugqrAX3I7LoJlDuh8u</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/GymanOQ9K7U4ofMLAvU22L</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/IVIdHqgsAKmKdX3CzmWxnM</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/LGNfuNvKouDBp40dn9zH8X</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/GE6Y75mPb89CQx72qqiFaW</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/Ig9o4CD5CWXEVfktsbvvPg</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/DHNY3LmgGY77OND80O1cLA</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/HUXsAAqP2oC1QENWNYjiC0</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/JWMWpIdWatpBvmJBnHQMGM</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/HjXm17ZgnQmK0faxtBN4AT</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/KfrVTtAogUTLM6O3kjyrOK</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/BkTHhiw82c83IIfzOzXabq</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/JOKAowhjh7u6yK6N90K3JK</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/GequK52GmcHBYRoHU79VJF</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/IazwrJzF2AV8zek88UZy0t</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/JURbFWDBcmI6hyzq5SJ7mj</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/JPNVuaakU4Z4c1nvN7HSSF</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/H7goiTLkcBY2zG13RCE601</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/HX3mEP02fMK2sHIPcDPq3D</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/LMVgHaA9yGrLPPg5GO1xuj</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/BELDxP85ayIGipgHKH5YkF</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/I5YroIkXLTlLKbpRIfgMT5</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/FnZ9gTO8V5R3ijM0qthFrJ</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/FgSVtLhPLAx4XUzvbkXtgH</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/FLCUFErcD3E52A5jgBEhBv</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/CDApNkzQ4BY97fDsAhz2Z9</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/IQbA7EK8J4P6MdBlndLcQv</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/IVfrRqTsMzJILZtqSR8pGc</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/IemdeJRupsfG4ditgA7dII</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/GikhOGB1FYI9JhRTB4NSuH</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/Fhnw0QvZFhGKOPV27MUfye</t>
+  </si>
+  <si>
+    <t>AG_X-M-A FORMULACIÓN Y EV</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/IofT4DJvcT4BmSDyr1BKc1</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/B9uYcT3Zohi8xdnRNHzmRF</t>
   </si>
   <si>
     <t>SI</t>
   </si>
   <si>
-    <t>F1.3 - 682 - CULTURA AMBIENTAL - 3567</t>
-  </si>
-  <si>
-    <t>MANANA</t>
-  </si>
-  <si>
-    <t>F1.3 - 682 - CULTURA AMBIENTAL - 3575</t>
-  </si>
-  <si>
-    <t>TARDE</t>
-  </si>
-  <si>
-    <t>CB.2 - 683 - ANÁLISIS MATEMÁTICO - 3563</t>
-  </si>
-  <si>
-    <t>MORAN REQUENA HUGO SAMUEL</t>
-  </si>
-  <si>
-    <t>CB.2 - 683 - ANÁLISIS MATEMÁTICO - 3571</t>
-  </si>
-  <si>
-    <t>CB.4 - 684 - FÍSICA - 3564</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>CARDENAS RUIZ DARIO ULDARICO</t>
-  </si>
-  <si>
-    <t>CB.4 - 684 - FÍSICA - 3569</t>
-  </si>
-  <si>
-    <t>MAÑANA</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>CB.4 - 684 - FÍSICA - 3572</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>CB.4 - 684 - FÍSICA - 3577</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>CB.5 - 685 - QUÍMICA GENERAL - 3565</t>
-  </si>
-  <si>
-    <t>NAVARRETE VELARDE RAUL ANTONIO</t>
-  </si>
-  <si>
-    <t>CB.5 - 685 - QUÍMICA GENERAL - 3570</t>
-  </si>
-  <si>
-    <t>CB.5 - 685 - QUÍMICA GENERAL - 3573</t>
-  </si>
-  <si>
-    <t>CB.5 - 685 - QUÍMICA GENERAL - 3578</t>
-  </si>
-  <si>
-    <t>CB.7 - 686 - BOTÁNICA GENERAL - 3566</t>
-  </si>
-  <si>
-    <t>CB.7 - 686 - BOTÁNICA GENERAL - 3574</t>
-  </si>
-  <si>
-    <t>FG.6 - 687 - INFORMÁTICA - 3568</t>
-  </si>
-  <si>
-    <t>ZAVALA QUISPE JULIO CESAR</t>
-  </si>
-  <si>
-    <t>FG.6 - 687 - INFORMÁTICA - 3576</t>
-  </si>
-  <si>
-    <t>F1.8 - 935 - ESTADÍSTICA AGRÍCOLA - 3582</t>
-  </si>
-  <si>
-    <t>CASTILLO SANTA MARIA BESSY</t>
-  </si>
-  <si>
-    <t>F1.8 - 935 - ESTADÍSTICA AGRÍCOLA - 3589</t>
-  </si>
-  <si>
-    <t>F1.11 - 936 - AGROMETEOROLOGÍA - 3580</t>
-  </si>
-  <si>
-    <t>QUISPE GONZALES GALLEGOS MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>F1.11 - 936 - AGROMETEOROLOGÍA - 3587</t>
-  </si>
-  <si>
-    <t>F1.27 - 937 - ECONOMÍA AGRÍCOLA - 3581</t>
-  </si>
-  <si>
-    <t>MEJIA SANCHEZ MILUSSJA IVETTE</t>
-  </si>
-  <si>
-    <t>F1.27 - 937 - ECONOMÍA AGRÍCOLA - 3588</t>
-  </si>
-  <si>
-    <t>CB.8 - 938 - BIOQUÍMICA GENERAL - 3579</t>
-  </si>
-  <si>
-    <t>LEVANO SARAVIA EMILY BRISEIDA</t>
-  </si>
-  <si>
-    <t>CB.8 - 938 - BIOQUÍMICA GENERAL - 3585</t>
-  </si>
-  <si>
-    <t>CB.8 - 938 - BIOQUÍMICA GENERAL - 3586</t>
-  </si>
-  <si>
-    <t>CB.8 - 938 - BIOQUÍMICA GENERAL - 3592</t>
-  </si>
-  <si>
-    <t>FG.2 - 939 - INGLÉS TÉCNICO II - 3583</t>
-  </si>
-  <si>
-    <t>FG.2 - 939 - INGLÉS TÉCNICO II - 3590</t>
-  </si>
-  <si>
-    <t>IF.1 - 940 - METODOLOGÍA DE INVESTIGACIÓN CIENTÍFICA I - 3584</t>
-  </si>
-  <si>
-    <t>IF.1 - 940 - METODOLOGÍA DE INVESTIGACIÓN CIENTÍFICA I - 3591</t>
-  </si>
-  <si>
-    <t>AG61 - 581 - AGROTECNÍA - 3594</t>
-  </si>
-  <si>
-    <t>AG61 - 581 - AGROTECNÍA - 3600</t>
-  </si>
-  <si>
-    <t>AG62 - 582 - FERTILIDAD DEL SUELO - 3595</t>
-  </si>
-  <si>
-    <t>AG62 - 582 - FERTILIDAD DEL SUELO - 3601</t>
-  </si>
-  <si>
-    <t>AG63 - 583 - PROPAGACIÓN DE PLANTAS - 3596</t>
-  </si>
-  <si>
-    <t>AG63 - 583 - PROPAGACIÓN DE PLANTAS - 3602</t>
-  </si>
-  <si>
-    <t>AG64 - 584 - ENTOMOLOGÍA GENERAL - 3597</t>
-  </si>
-  <si>
-    <t>MATOS LIZANA JULIO CESAR</t>
-  </si>
-  <si>
-    <t>AG64 - 584 - ENTOMOLOGÍA GENERAL - 3603</t>
-  </si>
-  <si>
-    <t>AG65 - 585 - TOPOGRAFÍA - 3598</t>
-  </si>
-  <si>
-    <t>AG65 - 585 - TOPOGRAFÍA - 3604</t>
-  </si>
-  <si>
-    <t>EG20 - 586 - PENSAMIENTO POLÍTICO CONTEMPORÁNEO - 3593</t>
-  </si>
-  <si>
-    <t>EG20 - 586 - PENSAMIENTO POLÍTICO CONTEMPORÁNEO - 3599</t>
-  </si>
-  <si>
-    <t>AG71 - 587 - MEJORAMIENTO GENÉTICO Y BIOTECNOLOGÍA - 3605</t>
-  </si>
-  <si>
-    <t>AG72 - 588 - MÉTODOS ESTADÍSTICOS DE INVESTIGACIÓN - 3606</t>
-  </si>
-  <si>
-    <t>AG73 - 589 - MACROECONOMÍA - 3607</t>
-  </si>
-  <si>
-    <t>AG74 - 590 - HIDROLOGÍA Y SISTEMAS DE RIEGO - 3608</t>
-  </si>
-  <si>
-    <t>DAMIAN SALAZAR ROJAS</t>
-  </si>
-  <si>
-    <t>AG75 - 591 - CEREALES Y PSEUDOCEREALES - 3609</t>
-  </si>
-  <si>
-    <t>AG76 - 592 - FITOPATOLOGÍA GENERAL - 3610</t>
-  </si>
-  <si>
-    <t>AG76 - 592 - FITOPATOLOGÍA GENERAL - 3611</t>
-  </si>
-  <si>
-    <t>AG81 - 593 - RAICES Y TUBÉRCULOS - 3612</t>
-  </si>
-  <si>
-    <t>AG82 - 594 - OLERICULTURA - 3613</t>
-  </si>
-  <si>
-    <t>AG83 - 595 - FRUTICULTURA - 3614</t>
-  </si>
-  <si>
-    <t>AG86 - 598 - ENTOMOLOGÍA AGRÍCOLA - 3617</t>
-  </si>
-  <si>
-    <t>AG84 - 620 - METODOLOGÍA DE INVESTIGACIÓN CIENTÍFICA - 3615</t>
-  </si>
-  <si>
-    <t>AG85 - 621 - PRODUCCIÓN DE SEMILLAS - 3616</t>
-  </si>
-  <si>
-    <t>AG105 - 605 - FORMULACIÓN Y EVALUACIÓN DE PROYECTOS AGRÍCOLAS - 3618</t>
-  </si>
-  <si>
-    <t>AG105 - 605 - FORMULACIÓN Y EVALUACIÓN DE PROYECTOS AGRÍCOLAS - 3625</t>
-  </si>
-  <si>
-    <t>AG108 - 608 - EXTENSIÓN AGRARIA - 3621</t>
-  </si>
-  <si>
-    <t>PEREZ CASAS EVELIN LISSET</t>
-  </si>
-  <si>
-    <t>AG108 - 608 - EXTENSIÓN AGRARIA - 3628</t>
-  </si>
-  <si>
-    <t>AG106 - 626 - MANEJO INTEGRADO DE PLAGAS Y ENFERMEDADES - 3619</t>
-  </si>
-  <si>
-    <t>AG106 - 626 - MANEJO INTEGRADO DE PLAGAS Y ENFERMEDADES - 3626</t>
-  </si>
-  <si>
-    <t>AG107 - 627 - SEMINARIO DE TESIS II - 3620</t>
-  </si>
-  <si>
-    <t>AG107 - 627 - SEMINARIO DE TESIS II - 3627</t>
-  </si>
-  <si>
-    <t>AG109 - 628 - NUTRICIÓN Y ALIMENTACIÓN ANIMAL - 3622</t>
-  </si>
-  <si>
-    <t>AG109 - 628 - NUTRICIÓN Y ALIMENTACIÓN ANIMAL - 3629</t>
-  </si>
-  <si>
-    <t>AG110 - 629 - CONTROL BIOLÓGICO DE PLAGAS Y ENFERMEDADES - 3623</t>
-  </si>
-  <si>
-    <t>AG110 - 629 - CONTROL BIOLÓGICO DE PLAGAS Y ENFERMEDADES - 3630</t>
-  </si>
-  <si>
-    <t>AG116 - 644 - AGRICULTURA ORGÁNICA Y CERTIFICACIONES - 3624</t>
-  </si>
-  <si>
-    <t>AG116 - 644 - AGRICULTURA ORGÁNICA Y CERTIFICACIONES - 3631</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/JchYrqGwKkWLujWFnDUtsj</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/L4CyDc2pd1bJBBF34aYwD5</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/HpUuQraY9tcCNsQiyALnSw</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/LZ6wrDJKIDSJKe8pqe7o8z</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/CxU4NcL5RHtCZA6egRisCu</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/Di66Vh0WBj5FbTEiehzkIA</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/Lji1bCPCHmV6CYBIXLlQ0h</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/HYs7dXiW1Zd3J1DKibSnQz</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/J8Dh9s65Dy4JC4bH0vyWcs</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/F1VhFOodf3E8vxiqhNeTRM</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/HQCDKXo1UXQ9JeVYoq8PG7</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/LDqsIdJ6pqF6RxBM5BrSlL</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/CtI1BaHO7Y34ugkkFShpFn</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/LyL1Pkn8kv79kzw17aZBql</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/BE5eQgcBFBR5CbdugGogvp</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/F1B1d1Ldll50XK5U6wucRp</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/J31tLHGO8YBDQit6FpsgiE</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/G9Xnj9ovmqb3qZlRDYr08h</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/FUCzaGsDOKk2st4NbQICgr</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/E6Wfk58tnI00nLN2YX6GWD</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/DuDSM96WkiZJHNZ1RHj3sM</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/DBahsJK8EC0KthGYehsEJN</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/BVPsEVVszDM6KpiJlCASyL</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/F0fnPN3FvFgAPbMx2TkXOJ</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/IVdrI033tQN8T7di7zokuG</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/G7bnVcaTT8v40NZXa48Kpr</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/Ewyc987MbHj5GZzPUiSnCk</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/FqVR75qRi4Y60U1a3sC3Zi</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/GzBPlUhjAp0I4hhB8BO4nm</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/ItT73ctRJFaJaqfLcceNGm</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/GJUrENdUQ0Y25ocd7GWHMZ</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/CmvjsWYgCJ72G753PEz1jZ</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/HZyVebwrJQU2u1Omm7CMg1</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/GFLqjh6YcBo3arH9UyS4bQ</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/DrEi5Y7cTLJH6LKsmj13KP</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/JO92KbpllIQB8mvShvJt93</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/ICy1ugqrAX3I7LoJlDuh8u</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/GymanOQ9K7U4ofMLAvU22L</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/IVIdHqgsAKmKdX3CzmWxnM</t>
-  </si>
-  <si>
-    <t>https://chat.whatsapp.com/LGNfuNvKouDBp40dn9zH8X</t>
+    <t>https://aula.undc.edu.pe/course/view.php?id=291</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=299</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=287</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=295</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=288</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=293</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=296</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=301</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=289</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=294</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=297</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=302</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=290</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=298</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=292</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=300</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=306</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=313</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=304</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=311</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=305</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=312</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=303</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=309</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=316</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=310</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=307</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=314</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=308</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=315</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=318</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=324</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=319</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=325</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=320</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=326</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=321</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=327</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=322</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=328</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=317</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=323</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=329</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=330</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=331</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=332</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=333</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=334</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=335</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=336</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=337</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=338</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=341</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=339</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=340</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=342</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=349</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=345</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=352</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=343</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=350</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=344</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=351</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=346</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=353</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=347</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=354</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=348</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=355</t>
   </si>
 </sst>
 </file>
@@ -942,7 +998,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -964,6 +1020,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,7 +1095,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1066,6 +1128,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1373,8 +1436,8 @@
   <dimension ref="A1:AE70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U29" sqref="U29"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T69" sqref="T69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,7 +1446,7 @@
     <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" customWidth="1"/>
     <col min="4" max="4" width="40.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.140625" customWidth="1"/>
     <col min="8" max="8" width="0.85546875" customWidth="1"/>
@@ -1427,7 +1490,7 @@
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4" t="s">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1442,7 +1505,7 @@
         <v>9</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>8</v>
@@ -1483,14 +1546,14 @@
       <c r="C2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>160</v>
+      <c r="D2" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>20</v>
@@ -1499,7 +1562,7 @@
         <v>38</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
@@ -1511,15 +1574,17 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
       <c r="S2" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="T2" t="s">
-        <v>159</v>
-      </c>
-      <c r="U2" s="14"/>
+        <v>205</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>237</v>
+      </c>
       <c r="V2" t="str">
         <f>MID(U2,45,4)</f>
-        <v/>
+        <v>291</v>
       </c>
       <c r="W2" t="str">
         <f t="shared" ref="W2" si="0">MID(D2,1,10)</f>
@@ -1558,33 +1623,36 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>162</v>
+      <c r="D3" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="S3" t="s">
-        <v>248</v>
+        <v>166</v>
       </c>
       <c r="T3" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U3" t="s">
+        <v>238</v>
       </c>
       <c r="V3" t="str">
         <f>MID(U3,45,4)</f>
-        <v/>
+        <v>299</v>
       </c>
       <c r="W3" t="str">
         <f t="shared" ref="W3:W4" si="2">MID(D3,1,10)</f>
@@ -1621,14 +1689,14 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>164</v>
+      <c r="D4" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -1637,17 +1705,20 @@
         <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="S4" t="s">
-        <v>249</v>
+        <v>167</v>
       </c>
       <c r="T4" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U4" t="s">
+        <v>239</v>
       </c>
       <c r="V4" t="str">
         <f t="shared" ref="V4:V67" si="5">MID(U4,45,4)</f>
-        <v/>
+        <v>287</v>
       </c>
       <c r="W4" t="str">
         <f t="shared" si="2"/>
@@ -1684,33 +1755,36 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>166</v>
+      <c r="D5" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="S5" t="s">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c r="T5" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U5" t="s">
+        <v>240</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>295</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" ref="W5:W68" si="8">MID(D5,1,10)</f>
@@ -1747,33 +1821,36 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>167</v>
+      <c r="D6" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="H6">
         <v>20</v>
       </c>
       <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S6" t="s">
         <v>169</v>
       </c>
-      <c r="S6" t="s">
-        <v>251</v>
-      </c>
       <c r="T6" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U6" t="s">
+        <v>241</v>
       </c>
       <c r="V6" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>288</v>
       </c>
       <c r="W6" t="str">
         <f t="shared" si="8"/>
@@ -1810,33 +1887,36 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>170</v>
+      <c r="D7" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="H7">
         <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="S7" t="s">
-        <v>252</v>
+        <v>170</v>
       </c>
       <c r="T7" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U7" t="s">
+        <v>242</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>293</v>
       </c>
       <c r="W7" t="str">
         <f t="shared" si="8"/>
@@ -1873,33 +1953,36 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>173</v>
+      <c r="D8" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="H8">
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="S8" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
       <c r="T8" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U8" t="s">
+        <v>243</v>
       </c>
       <c r="V8" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>296</v>
       </c>
       <c r="W8" t="str">
         <f t="shared" si="8"/>
@@ -1936,33 +2019,36 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>175</v>
+      <c r="D9" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="H9">
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="S9" t="s">
-        <v>254</v>
+        <v>172</v>
       </c>
       <c r="T9" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U9" t="s">
+        <v>244</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>301</v>
       </c>
       <c r="W9" t="str">
         <f t="shared" si="8"/>
@@ -1999,33 +2085,36 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
-        <v>177</v>
+      <c r="D10" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="H10">
         <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="S10" t="s">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="T10" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U10" t="s">
+        <v>245</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>289</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="8"/>
@@ -2062,33 +2151,36 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
-        <v>179</v>
+      <c r="D11" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="H11">
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="S11" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="T11" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U11" t="s">
+        <v>246</v>
       </c>
       <c r="V11" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>294</v>
       </c>
       <c r="W11" t="str">
         <f t="shared" si="8"/>
@@ -2125,33 +2217,36 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
-        <v>180</v>
+      <c r="D12" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="H12">
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="S12" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="T12" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U12" t="s">
+        <v>247</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>297</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="8"/>
@@ -2188,33 +2283,36 @@
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
-        <v>181</v>
+      <c r="D13" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="H13">
         <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="S13" t="s">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="T13" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U13" t="s">
+        <v>248</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>302</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="8"/>
@@ -2251,14 +2349,14 @@
       <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
-        <v>182</v>
+      <c r="D14" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
@@ -2267,17 +2365,20 @@
         <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="S14" t="s">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="T14" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U14" t="s">
+        <v>249</v>
       </c>
       <c r="V14" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>290</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="8"/>
@@ -2314,33 +2415,36 @@
       <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
-        <v>183</v>
+      <c r="D15" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15">
         <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="S15" t="s">
-        <v>260</v>
+        <v>178</v>
       </c>
       <c r="T15" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U15" t="s">
+        <v>250</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>298</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="8"/>
@@ -2377,14 +2481,14 @@
       <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" t="s">
-        <v>184</v>
+      <c r="D16" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -2393,17 +2497,20 @@
         <v>37</v>
       </c>
       <c r="I16" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="S16" t="s">
-        <v>261</v>
+        <v>179</v>
       </c>
       <c r="T16" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U16" t="s">
+        <v>251</v>
       </c>
       <c r="V16" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>292</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="8"/>
@@ -2440,33 +2547,36 @@
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" t="s">
-        <v>186</v>
+      <c r="D17" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H17">
         <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="S17" t="s">
-        <v>262</v>
+        <v>180</v>
       </c>
       <c r="T17" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U17" t="s">
+        <v>252</v>
       </c>
       <c r="V17" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>300</v>
       </c>
       <c r="W17" t="str">
         <f t="shared" si="8"/>
@@ -2504,13 +2614,13 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
@@ -2519,17 +2629,20 @@
         <v>37</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="S18" t="s">
-        <v>263</v>
+        <v>181</v>
       </c>
       <c r="T18" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U18" t="s">
+        <v>253</v>
       </c>
       <c r="V18" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>306</v>
       </c>
       <c r="W18" t="str">
         <f t="shared" si="8"/>
@@ -2567,32 +2680,35 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H19">
         <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="S19" t="s">
-        <v>264</v>
+        <v>182</v>
       </c>
       <c r="T19" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U19" t="s">
+        <v>254</v>
       </c>
       <c r="V19" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>313</v>
       </c>
       <c r="W19" t="str">
         <f t="shared" si="8"/>
@@ -2630,13 +2746,13 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
         <v>20</v>
@@ -2645,17 +2761,20 @@
         <v>37</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="S20" t="s">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c r="T20" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U20" t="s">
+        <v>255</v>
       </c>
       <c r="V20" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>304</v>
       </c>
       <c r="W20" t="str">
         <f t="shared" si="8"/>
@@ -2693,32 +2812,35 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H21">
         <v>30</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="S21" t="s">
-        <v>266</v>
+        <v>184</v>
       </c>
       <c r="T21" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U21" t="s">
+        <v>256</v>
       </c>
       <c r="V21" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>311</v>
       </c>
       <c r="W21" t="str">
         <f t="shared" si="8"/>
@@ -2756,13 +2878,13 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
@@ -2771,17 +2893,20 @@
         <v>36</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="S22" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
       <c r="T22" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U22" t="s">
+        <v>257</v>
       </c>
       <c r="V22" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>305</v>
       </c>
       <c r="W22" t="str">
         <f t="shared" si="8"/>
@@ -2819,32 +2944,35 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H23">
         <v>28</v>
       </c>
       <c r="I23" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="S23" t="s">
-        <v>268</v>
+        <v>186</v>
       </c>
       <c r="T23" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U23" t="s">
+        <v>258</v>
       </c>
       <c r="V23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>312</v>
       </c>
       <c r="W23" t="str">
         <f t="shared" si="8"/>
@@ -2882,32 +3010,35 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="H24">
         <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="S24" t="s">
-        <v>269</v>
+        <v>187</v>
       </c>
       <c r="T24" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U24" t="s">
+        <v>259</v>
       </c>
       <c r="V24" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>303</v>
       </c>
       <c r="W24" t="str">
         <f t="shared" si="8"/>
@@ -2945,32 +3076,35 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="H25">
         <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="S25" t="s">
-        <v>270</v>
+        <v>188</v>
       </c>
       <c r="T25" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U25" t="s">
+        <v>260</v>
       </c>
       <c r="V25" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>309</v>
       </c>
       <c r="W25" t="str">
         <f t="shared" si="8"/>
@@ -3008,32 +3142,35 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="H26">
         <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="S26" t="s">
-        <v>271</v>
+        <v>189</v>
       </c>
       <c r="T26" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U26" t="s">
+        <v>262</v>
       </c>
       <c r="V26" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>310</v>
       </c>
       <c r="W26" t="str">
         <f t="shared" si="8"/>
@@ -3071,32 +3208,35 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="H27">
         <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="S27" t="s">
-        <v>272</v>
+        <v>190</v>
       </c>
       <c r="T27" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U27" t="s">
+        <v>261</v>
       </c>
       <c r="V27" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>316</v>
       </c>
       <c r="W27" t="str">
         <f t="shared" si="8"/>
@@ -3134,13 +3274,13 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s">
         <v>20</v>
@@ -3149,17 +3289,20 @@
         <v>36</v>
       </c>
       <c r="I28" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="S28" t="s">
-        <v>273</v>
+        <v>191</v>
       </c>
       <c r="T28" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U28" t="s">
+        <v>263</v>
       </c>
       <c r="V28" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>307</v>
       </c>
       <c r="W28" t="str">
         <f t="shared" si="8"/>
@@ -3197,32 +3340,35 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H29">
         <v>33</v>
       </c>
       <c r="I29" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="S29" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="T29" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U29" t="s">
+        <v>264</v>
       </c>
       <c r="V29" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>314</v>
       </c>
       <c r="W29" t="str">
         <f t="shared" si="8"/>
@@ -3260,13 +3406,13 @@
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s">
         <v>20</v>
@@ -3275,17 +3421,20 @@
         <v>37</v>
       </c>
       <c r="I30" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="S30" t="s">
-        <v>275</v>
+        <v>193</v>
       </c>
       <c r="T30" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U30" t="s">
+        <v>265</v>
       </c>
       <c r="V30" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>308</v>
       </c>
       <c r="W30" t="str">
         <f t="shared" si="8"/>
@@ -3323,32 +3472,35 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H31">
         <v>28</v>
       </c>
       <c r="I31" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="S31" t="s">
-        <v>276</v>
+        <v>194</v>
       </c>
       <c r="T31" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U31" t="s">
+        <v>266</v>
       </c>
       <c r="V31" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>315</v>
       </c>
       <c r="W31" t="str">
         <f t="shared" si="8"/>
@@ -3385,14 +3537,14 @@
       <c r="C32" t="s">
         <v>18</v>
       </c>
-      <c r="D32" t="s">
-        <v>205</v>
+      <c r="D32" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s">
         <v>20</v>
@@ -3401,17 +3553,20 @@
         <v>26</v>
       </c>
       <c r="I32" t="s">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="S32" t="s">
-        <v>277</v>
+        <v>195</v>
       </c>
       <c r="T32" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U32" t="s">
+        <v>267</v>
       </c>
       <c r="V32" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>318</v>
       </c>
       <c r="W32" t="str">
         <f t="shared" si="8"/>
@@ -3448,33 +3603,36 @@
       <c r="C33" t="s">
         <v>18</v>
       </c>
-      <c r="D33" t="s">
-        <v>206</v>
+      <c r="D33" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H33">
         <v>22</v>
       </c>
       <c r="I33" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="S33" t="s">
-        <v>278</v>
+        <v>196</v>
       </c>
       <c r="T33" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U33" t="s">
+        <v>268</v>
       </c>
       <c r="V33" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>324</v>
       </c>
       <c r="W33" t="str">
         <f t="shared" si="8"/>
@@ -3511,14 +3669,14 @@
       <c r="C34" t="s">
         <v>18</v>
       </c>
-      <c r="D34" t="s">
-        <v>207</v>
+      <c r="D34" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s">
         <v>20</v>
@@ -3527,17 +3685,20 @@
         <v>28</v>
       </c>
       <c r="I34" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="S34" t="s">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="T34" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U34" t="s">
+        <v>269</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>319</v>
       </c>
       <c r="W34" t="str">
         <f t="shared" si="8"/>
@@ -3574,33 +3735,36 @@
       <c r="C35" t="s">
         <v>18</v>
       </c>
-      <c r="D35" t="s">
-        <v>208</v>
+      <c r="D35" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H35">
         <v>27</v>
       </c>
       <c r="I35" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="S35" t="s">
-        <v>280</v>
+        <v>198</v>
       </c>
       <c r="T35" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U35" t="s">
+        <v>270</v>
       </c>
       <c r="V35" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>325</v>
       </c>
       <c r="W35" t="str">
         <f t="shared" si="8"/>
@@ -3637,14 +3801,14 @@
       <c r="C36" t="s">
         <v>18</v>
       </c>
-      <c r="D36" t="s">
-        <v>209</v>
+      <c r="D36" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s">
         <v>20</v>
@@ -3653,17 +3817,20 @@
         <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="S36" t="s">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="T36" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U36" t="s">
+        <v>271</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>320</v>
       </c>
       <c r="W36" t="str">
         <f t="shared" si="8"/>
@@ -3700,33 +3867,36 @@
       <c r="C37" t="s">
         <v>18</v>
       </c>
-      <c r="D37" t="s">
-        <v>210</v>
+      <c r="D37" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="F37" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H37">
         <v>26</v>
       </c>
       <c r="I37" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="S37" t="s">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="T37" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U37" t="s">
+        <v>272</v>
       </c>
       <c r="V37" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>326</v>
       </c>
       <c r="W37" t="str">
         <f t="shared" si="8"/>
@@ -3763,14 +3933,14 @@
       <c r="C38" t="s">
         <v>18</v>
       </c>
-      <c r="D38" t="s">
-        <v>211</v>
+      <c r="D38" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="F38" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s">
         <v>20</v>
@@ -3779,17 +3949,20 @@
         <v>24</v>
       </c>
       <c r="I38" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="S38" t="s">
-        <v>283</v>
+        <v>201</v>
       </c>
       <c r="T38" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U38" t="s">
+        <v>273</v>
       </c>
       <c r="V38" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>321</v>
       </c>
       <c r="W38" t="str">
         <f t="shared" si="8"/>
@@ -3826,33 +3999,36 @@
       <c r="C39" t="s">
         <v>18</v>
       </c>
-      <c r="D39" t="s">
-        <v>213</v>
+      <c r="D39" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H39">
         <v>23</v>
       </c>
       <c r="I39" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="S39" t="s">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c r="T39" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U39" t="s">
+        <v>274</v>
       </c>
       <c r="V39" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>327</v>
       </c>
       <c r="W39" t="str">
         <f t="shared" si="8"/>
@@ -3889,14 +4065,14 @@
       <c r="C40" t="s">
         <v>18</v>
       </c>
-      <c r="D40" t="s">
-        <v>214</v>
+      <c r="D40" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="F40" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
         <v>20</v>
@@ -3905,17 +4081,20 @@
         <v>22</v>
       </c>
       <c r="I40" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="S40" t="s">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="T40" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U40" t="s">
+        <v>275</v>
       </c>
       <c r="V40" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>322</v>
       </c>
       <c r="W40" t="str">
         <f t="shared" si="8"/>
@@ -3952,33 +4131,36 @@
       <c r="C41" t="s">
         <v>18</v>
       </c>
-      <c r="D41" t="s">
-        <v>215</v>
+      <c r="D41" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="F41" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H41">
         <v>27</v>
       </c>
       <c r="I41" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="S41" t="s">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="T41" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U41" t="s">
+        <v>276</v>
       </c>
       <c r="V41" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>328</v>
       </c>
       <c r="W41" t="str">
         <f t="shared" si="8"/>
@@ -4015,14 +4197,14 @@
       <c r="C42" t="s">
         <v>18</v>
       </c>
-      <c r="D42" t="s">
-        <v>216</v>
+      <c r="D42" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="F42" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s">
         <v>20</v>
@@ -4031,14 +4213,20 @@
         <v>25</v>
       </c>
       <c r="I42" t="s">
-        <v>138</v>
+        <v>67</v>
+      </c>
+      <c r="S42" t="s">
+        <v>206</v>
       </c>
       <c r="T42" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U42" t="s">
+        <v>277</v>
       </c>
       <c r="V42" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>317</v>
       </c>
       <c r="W42" t="str">
         <f t="shared" si="8"/>
@@ -4062,7 +4250,7 @@
       </c>
       <c r="AB42" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S42,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/GE6Y75mPb89CQx72qqiFaW' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
@@ -4075,30 +4263,36 @@
       <c r="C43" t="s">
         <v>18</v>
       </c>
-      <c r="D43" t="s">
-        <v>217</v>
+      <c r="D43" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H43">
         <v>29</v>
       </c>
       <c r="I43" t="s">
-        <v>138</v>
+        <v>67</v>
+      </c>
+      <c r="S43" t="s">
+        <v>207</v>
       </c>
       <c r="T43" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U43" t="s">
+        <v>278</v>
       </c>
       <c r="V43" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>323</v>
       </c>
       <c r="W43" t="str">
         <f t="shared" si="8"/>
@@ -4122,7 +4316,7 @@
       </c>
       <c r="AB43" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S43,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/Ig9o4CD5CWXEVfktsbvvPg' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
@@ -4136,13 +4330,13 @@
         <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s">
         <v>20</v>
@@ -4151,14 +4345,20 @@
         <v>51</v>
       </c>
       <c r="I44" t="s">
-        <v>150</v>
+        <v>74</v>
+      </c>
+      <c r="S44" t="s">
+        <v>208</v>
       </c>
       <c r="T44" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U44" t="s">
+        <v>279</v>
       </c>
       <c r="V44" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>329</v>
       </c>
       <c r="W44" t="str">
         <f t="shared" si="8"/>
@@ -4182,7 +4382,7 @@
       </c>
       <c r="AB44" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S44,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/DHNY3LmgGY77OND80O1cLA' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
@@ -4196,13 +4396,13 @@
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s">
         <v>20</v>
@@ -4211,14 +4411,20 @@
         <v>50</v>
       </c>
       <c r="I45" t="s">
-        <v>188</v>
+        <v>106</v>
+      </c>
+      <c r="S45" t="s">
+        <v>209</v>
       </c>
       <c r="T45" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U45" t="s">
+        <v>280</v>
       </c>
       <c r="V45" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>330</v>
       </c>
       <c r="W45" t="str">
         <f t="shared" si="8"/>
@@ -4242,7 +4448,7 @@
       </c>
       <c r="AB45" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S45,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/HUXsAAqP2oC1QENWNYjiC0' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
@@ -4256,13 +4462,13 @@
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s">
         <v>20</v>
@@ -4271,14 +4477,20 @@
         <v>35</v>
       </c>
       <c r="I46" t="s">
-        <v>194</v>
+        <v>112</v>
+      </c>
+      <c r="S46" t="s">
+        <v>210</v>
       </c>
       <c r="T46" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U46" t="s">
+        <v>281</v>
       </c>
       <c r="V46" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>331</v>
       </c>
       <c r="W46" t="str">
         <f t="shared" si="8"/>
@@ -4302,7 +4514,7 @@
       </c>
       <c r="AB46" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S46,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/JWMWpIdWatpBvmJBnHQMGM' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
@@ -4316,13 +4528,13 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>221</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s">
         <v>20</v>
@@ -4331,14 +4543,20 @@
         <v>50</v>
       </c>
       <c r="I47" t="s">
-        <v>222</v>
+        <v>140</v>
+      </c>
+      <c r="S47" t="s">
+        <v>211</v>
       </c>
       <c r="T47" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U47" t="s">
+        <v>282</v>
       </c>
       <c r="V47" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>332</v>
       </c>
       <c r="W47" t="str">
         <f t="shared" si="8"/>
@@ -4362,7 +4580,7 @@
       </c>
       <c r="AB47" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S47,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/HjXm17ZgnQmK0faxtBN4AT' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
@@ -4376,13 +4594,13 @@
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s">
         <v>20</v>
@@ -4391,14 +4609,20 @@
         <v>50</v>
       </c>
       <c r="I48" t="s">
-        <v>150</v>
+        <v>74</v>
+      </c>
+      <c r="S48" t="s">
+        <v>212</v>
       </c>
       <c r="T48" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U48" t="s">
+        <v>283</v>
       </c>
       <c r="V48" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>333</v>
       </c>
       <c r="W48" t="str">
         <f t="shared" si="8"/>
@@ -4422,7 +4646,7 @@
       </c>
       <c r="AB48" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S48,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/KfrVTtAogUTLM6O3kjyrOK' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
@@ -4436,13 +4660,13 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s">
         <v>20</v>
@@ -4451,14 +4675,20 @@
         <v>28</v>
       </c>
       <c r="I49" t="s">
-        <v>154</v>
+        <v>76</v>
+      </c>
+      <c r="S49" t="s">
+        <v>213</v>
       </c>
       <c r="T49" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U49" t="s">
+        <v>284</v>
       </c>
       <c r="V49" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>334</v>
       </c>
       <c r="W49" t="str">
         <f t="shared" si="8"/>
@@ -4482,7 +4712,7 @@
       </c>
       <c r="AB49" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S49,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/BkTHhiw82c83IIfzOzXabq' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
@@ -4496,29 +4726,35 @@
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H50">
         <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>191</v>
+        <v>109</v>
+      </c>
+      <c r="S50" t="s">
+        <v>214</v>
       </c>
       <c r="T50" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U50" t="s">
+        <v>285</v>
       </c>
       <c r="V50" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>335</v>
       </c>
       <c r="W50" t="str">
         <f t="shared" si="8"/>
@@ -4542,7 +4778,7 @@
       </c>
       <c r="AB50" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S50,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/JOKAowhjh7u6yK6N90K3JK' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
@@ -4555,30 +4791,36 @@
       <c r="C51" t="s">
         <v>18</v>
       </c>
-      <c r="D51" t="s">
-        <v>226</v>
+      <c r="D51" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="F51" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H51">
         <v>27</v>
       </c>
       <c r="I51" t="s">
-        <v>134</v>
+        <v>65</v>
+      </c>
+      <c r="S51" t="s">
+        <v>215</v>
       </c>
       <c r="T51" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U51" t="s">
+        <v>286</v>
       </c>
       <c r="V51" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>336</v>
       </c>
       <c r="W51" t="str">
         <f t="shared" si="8"/>
@@ -4602,7 +4844,7 @@
       </c>
       <c r="AB51" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S51,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/GequK52GmcHBYRoHU79VJF' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
@@ -4615,30 +4857,36 @@
       <c r="C52" t="s">
         <v>18</v>
       </c>
-      <c r="D52" t="s">
-        <v>227</v>
+      <c r="D52" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="F52" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H52">
         <v>27</v>
       </c>
       <c r="I52" t="s">
-        <v>222</v>
+        <v>140</v>
+      </c>
+      <c r="S52" t="s">
+        <v>216</v>
       </c>
       <c r="T52" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U52" t="s">
+        <v>287</v>
       </c>
       <c r="V52" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>337</v>
       </c>
       <c r="W52" t="str">
         <f t="shared" si="8"/>
@@ -4662,7 +4910,7 @@
       </c>
       <c r="AB52" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S52,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/IazwrJzF2AV8zek88UZy0t' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
@@ -4675,30 +4923,36 @@
       <c r="C53" t="s">
         <v>18</v>
       </c>
-      <c r="D53" t="s">
-        <v>228</v>
+      <c r="D53" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="E53" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="F53" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H53">
         <v>39</v>
       </c>
       <c r="I53" t="s">
-        <v>222</v>
+        <v>140</v>
+      </c>
+      <c r="S53" t="s">
+        <v>217</v>
       </c>
       <c r="T53" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U53" t="s">
+        <v>288</v>
       </c>
       <c r="V53" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>338</v>
       </c>
       <c r="W53" t="str">
         <f t="shared" si="8"/>
@@ -4722,7 +4976,7 @@
       </c>
       <c r="AB53" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S53,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/JURbFWDBcmI6hyzq5SJ7mj' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
@@ -4735,30 +4989,36 @@
       <c r="C54" t="s">
         <v>18</v>
       </c>
-      <c r="D54" t="s">
-        <v>229</v>
+      <c r="D54" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="F54" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H54">
         <v>37</v>
       </c>
       <c r="I54" t="s">
-        <v>149</v>
+        <v>73</v>
+      </c>
+      <c r="S54" t="s">
+        <v>218</v>
       </c>
       <c r="T54" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U54" t="s">
+        <v>289</v>
       </c>
       <c r="V54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>341</v>
       </c>
       <c r="W54" t="str">
         <f t="shared" si="8"/>
@@ -4782,7 +5042,7 @@
       </c>
       <c r="AB54" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S54,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/JPNVuaakU4Z4c1nvN7HSSF' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
@@ -4795,30 +5055,36 @@
       <c r="C55" t="s">
         <v>18</v>
       </c>
-      <c r="D55" t="s">
-        <v>230</v>
+      <c r="D55" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="E55" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="F55" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H55">
         <v>39</v>
       </c>
       <c r="I55" t="s">
-        <v>194</v>
+        <v>112</v>
+      </c>
+      <c r="S55" t="s">
+        <v>219</v>
       </c>
       <c r="T55" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U55" t="s">
+        <v>290</v>
       </c>
       <c r="V55" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>339</v>
       </c>
       <c r="W55" t="str">
         <f t="shared" si="8"/>
@@ -4842,7 +5108,7 @@
       </c>
       <c r="AB55" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S55,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/H7goiTLkcBY2zG13RCE601' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
@@ -4855,30 +5121,36 @@
       <c r="C56" t="s">
         <v>18</v>
       </c>
-      <c r="D56" t="s">
-        <v>231</v>
+      <c r="D56" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="E56" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="F56" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H56">
         <v>28</v>
       </c>
       <c r="I56" t="s">
-        <v>150</v>
+        <v>74</v>
+      </c>
+      <c r="S56" t="s">
+        <v>220</v>
       </c>
       <c r="T56" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U56" t="s">
+        <v>291</v>
       </c>
       <c r="V56" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>340</v>
       </c>
       <c r="W56" t="str">
         <f t="shared" si="8"/>
@@ -4902,7 +5174,7 @@
       </c>
       <c r="AB56" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S56,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/HX3mEP02fMK2sHIPcDPq3D' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
@@ -4916,13 +5188,13 @@
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="E57" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="F57" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s">
         <v>20</v>
@@ -4931,14 +5203,20 @@
         <v>24</v>
       </c>
       <c r="I57" t="s">
-        <v>148</v>
+        <v>72</v>
+      </c>
+      <c r="S57" t="s">
+        <v>234</v>
       </c>
       <c r="T57" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U57" t="s">
+        <v>292</v>
       </c>
       <c r="V57" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>342</v>
       </c>
       <c r="W57" t="str">
         <f t="shared" si="8"/>
@@ -4962,7 +5240,7 @@
       </c>
       <c r="AB57" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S57,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/IofT4DJvcT4BmSDyr1BKc1' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
@@ -4976,29 +5254,35 @@
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="E58" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H58">
         <v>36</v>
       </c>
       <c r="I58" t="s">
-        <v>148</v>
+        <v>72</v>
+      </c>
+      <c r="S58" t="s">
+        <v>235</v>
       </c>
       <c r="T58" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U58" t="s">
+        <v>293</v>
       </c>
       <c r="V58" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>349</v>
       </c>
       <c r="W58" t="str">
         <f t="shared" si="8"/>
@@ -5022,7 +5306,7 @@
       </c>
       <c r="AB58" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S58,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/B9uYcT3Zohi8xdnRNHzmRF' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
@@ -5036,13 +5320,13 @@
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="E59" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="F59" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s">
         <v>20</v>
@@ -5051,14 +5335,20 @@
         <v>17</v>
       </c>
       <c r="I59" t="s">
-        <v>235</v>
+        <v>153</v>
+      </c>
+      <c r="S59" t="s">
+        <v>221</v>
       </c>
       <c r="T59" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U59" t="s">
+        <v>294</v>
       </c>
       <c r="V59" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>345</v>
       </c>
       <c r="W59" t="str">
         <f t="shared" si="8"/>
@@ -5082,7 +5372,7 @@
       </c>
       <c r="AB59" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S59,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/LMVgHaA9yGrLPPg5GO1xuj' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
@@ -5096,29 +5386,35 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="F60" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H60">
         <v>31</v>
       </c>
       <c r="I60" t="s">
-        <v>140</v>
+        <v>69</v>
+      </c>
+      <c r="S60" t="s">
+        <v>222</v>
       </c>
       <c r="T60" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U60" t="s">
+        <v>295</v>
       </c>
       <c r="V60" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>352</v>
       </c>
       <c r="W60" t="str">
         <f t="shared" si="8"/>
@@ -5142,7 +5438,7 @@
       </c>
       <c r="AB60" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S60,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/BELDxP85ayIGipgHKH5YkF' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
@@ -5156,13 +5452,13 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>237</v>
+        <v>155</v>
       </c>
       <c r="E61" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="F61" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s">
         <v>20</v>
@@ -5171,14 +5467,20 @@
         <v>18</v>
       </c>
       <c r="I61" t="s">
-        <v>146</v>
+        <v>71</v>
+      </c>
+      <c r="S61" t="s">
+        <v>223</v>
       </c>
       <c r="T61" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U61" t="s">
+        <v>296</v>
       </c>
       <c r="V61" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>343</v>
       </c>
       <c r="W61" t="str">
         <f t="shared" si="8"/>
@@ -5202,7 +5504,7 @@
       </c>
       <c r="AB61" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S61,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/I5YroIkXLTlLKbpRIfgMT5' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
@@ -5216,29 +5518,35 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="E62" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="F62" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H62">
         <v>38</v>
       </c>
       <c r="I62" t="s">
-        <v>149</v>
+        <v>73</v>
+      </c>
+      <c r="S62" t="s">
+        <v>224</v>
       </c>
       <c r="T62" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U62" t="s">
+        <v>297</v>
       </c>
       <c r="V62" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>350</v>
       </c>
       <c r="W62" t="str">
         <f t="shared" si="8"/>
@@ -5262,7 +5570,7 @@
       </c>
       <c r="AB62" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S62,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/FnZ9gTO8V5R3ijM0qthFrJ' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
@@ -5276,13 +5584,13 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="E63" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="F63" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s">
         <v>20</v>
@@ -5291,14 +5599,20 @@
         <v>22</v>
       </c>
       <c r="I63" t="s">
-        <v>139</v>
+        <v>68</v>
+      </c>
+      <c r="S63" t="s">
+        <v>225</v>
       </c>
       <c r="T63" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U63" t="s">
+        <v>298</v>
       </c>
       <c r="V63" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>344</v>
       </c>
       <c r="W63" t="str">
         <f t="shared" si="8"/>
@@ -5322,7 +5636,7 @@
       </c>
       <c r="AB63" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S63,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/FgSVtLhPLAx4XUzvbkXtgH' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
@@ -5336,29 +5650,35 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>240</v>
+        <v>158</v>
       </c>
       <c r="E64" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="F64" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G64" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H64">
         <v>35</v>
       </c>
       <c r="I64" t="s">
-        <v>139</v>
+        <v>68</v>
+      </c>
+      <c r="S64" t="s">
+        <v>226</v>
       </c>
       <c r="T64" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U64" t="s">
+        <v>299</v>
       </c>
       <c r="V64" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>351</v>
       </c>
       <c r="W64" t="str">
         <f t="shared" si="8"/>
@@ -5382,7 +5702,7 @@
       </c>
       <c r="AB64" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S64,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/FLCUFErcD3E52A5jgBEhBv' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
@@ -5396,13 +5716,13 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>241</v>
+        <v>159</v>
       </c>
       <c r="E65" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s">
         <v>20</v>
@@ -5411,14 +5731,20 @@
         <v>26</v>
       </c>
       <c r="I65" t="s">
-        <v>235</v>
+        <v>153</v>
+      </c>
+      <c r="S65" t="s">
+        <v>227</v>
       </c>
       <c r="T65" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U65" t="s">
+        <v>300</v>
       </c>
       <c r="V65" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>346</v>
       </c>
       <c r="W65" t="str">
         <f t="shared" si="8"/>
@@ -5442,7 +5768,7 @@
       </c>
       <c r="AB65" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S65,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/CDApNkzQ4BY97fDsAhz2Z9' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
@@ -5456,29 +5782,35 @@
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="E66" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="F66" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G66" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H66">
         <v>32</v>
       </c>
       <c r="I66" t="s">
-        <v>235</v>
+        <v>153</v>
+      </c>
+      <c r="S66" t="s">
+        <v>228</v>
       </c>
       <c r="T66" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U66" t="s">
+        <v>301</v>
       </c>
       <c r="V66" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>353</v>
       </c>
       <c r="W66" t="str">
         <f t="shared" si="8"/>
@@ -5502,7 +5834,7 @@
       </c>
       <c r="AB66" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S66,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/IQbA7EK8J4P6MdBlndLcQv' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
@@ -5516,13 +5848,13 @@
         <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="E67" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="F67" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s">
         <v>20</v>
@@ -5530,12 +5862,18 @@
       <c r="H67">
         <v>26</v>
       </c>
+      <c r="S67" t="s">
+        <v>229</v>
+      </c>
       <c r="T67" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U67" t="s">
+        <v>302</v>
       </c>
       <c r="V67" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>347</v>
       </c>
       <c r="W67" t="str">
         <f t="shared" si="8"/>
@@ -5559,7 +5897,7 @@
       </c>
       <c r="AB67" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S67,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/IVfrRqTsMzJILZtqSR8pGc' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
@@ -5573,29 +5911,35 @@
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>244</v>
+        <v>162</v>
       </c>
       <c r="E68" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="F68" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H68">
         <v>35</v>
       </c>
       <c r="I68" t="s">
-        <v>139</v>
+        <v>68</v>
+      </c>
+      <c r="S68" t="s">
+        <v>230</v>
       </c>
       <c r="T68" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U68" t="s">
+        <v>303</v>
       </c>
       <c r="V68" t="str">
         <f t="shared" ref="V68:V70" si="11">MID(U68,45,4)</f>
-        <v/>
+        <v>354</v>
       </c>
       <c r="W68" t="str">
         <f t="shared" si="8"/>
@@ -5619,7 +5963,7 @@
       </c>
       <c r="AB68" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S68,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/IemdeJRupsfG4ditgA7dII' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
@@ -5633,13 +5977,13 @@
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>245</v>
+        <v>163</v>
       </c>
       <c r="E69" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="F69" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s">
         <v>20</v>
@@ -5648,14 +5992,20 @@
         <v>13</v>
       </c>
       <c r="I69" t="s">
-        <v>134</v>
+        <v>65</v>
+      </c>
+      <c r="S69" t="s">
+        <v>231</v>
       </c>
       <c r="T69" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U69" t="s">
+        <v>304</v>
       </c>
       <c r="V69" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>348</v>
       </c>
       <c r="W69" t="str">
         <f t="shared" ref="W69:W70" si="14">MID(D69,1,10)</f>
@@ -5679,7 +6029,7 @@
       </c>
       <c r="AB69" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S69,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/GikhOGB1FYI9JhRTB4NSuH' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
@@ -5693,29 +6043,35 @@
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="E70" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="F70" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G70" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H70">
         <v>26</v>
       </c>
       <c r="I70" t="s">
-        <v>188</v>
+        <v>106</v>
+      </c>
+      <c r="S70" t="s">
+        <v>232</v>
       </c>
       <c r="T70" t="s">
-        <v>159</v>
+        <v>236</v>
+      </c>
+      <c r="U70" t="s">
+        <v>305</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>355</v>
       </c>
       <c r="W70" t="str">
         <f t="shared" si="14"/>
@@ -5739,7 +6095,7 @@
       </c>
       <c r="AB70" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S70,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
-        <v>&lt;p&gt;&lt;a href='' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/Fhnw0QvZFhGKOPV27MUfye' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -5750,2112 +6106,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208B27A9-87B6-497F-9323-3600128A4AFD}">
-  <dimension ref="A1:M65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956E4737-6198-4B8E-ADF8-148D6104AE44}">
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="C1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>134</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>133</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>135</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8">
-        <v>40</v>
-      </c>
-      <c r="I8" t="s">
-        <v>137</v>
-      </c>
-      <c r="M8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>137</v>
-      </c>
-      <c r="M9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10">
-        <v>40</v>
-      </c>
-      <c r="I10" t="s">
-        <v>135</v>
-      </c>
-      <c r="M10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11">
-        <v>43</v>
-      </c>
-      <c r="I11" t="s">
-        <v>135</v>
-      </c>
-      <c r="M11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12">
-        <v>40</v>
-      </c>
-      <c r="I12" t="s">
-        <v>138</v>
-      </c>
-      <c r="M12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13">
-        <v>40</v>
-      </c>
-      <c r="I13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14">
-        <v>37</v>
-      </c>
-      <c r="I14" t="s">
-        <v>139</v>
-      </c>
-      <c r="M14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15">
-        <v>32</v>
-      </c>
-      <c r="I15" t="s">
-        <v>139</v>
-      </c>
-      <c r="M15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16">
-        <v>35</v>
-      </c>
-      <c r="I16" t="s">
-        <v>140</v>
-      </c>
-      <c r="M16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17">
-        <v>33</v>
-      </c>
-      <c r="I17" t="s">
-        <v>140</v>
-      </c>
-      <c r="M17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18">
-        <v>37</v>
-      </c>
-      <c r="I18" t="s">
-        <v>133</v>
-      </c>
-      <c r="M18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19">
-        <v>28</v>
-      </c>
-      <c r="I19" t="s">
-        <v>133</v>
-      </c>
-      <c r="M19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20">
-        <v>37</v>
-      </c>
-      <c r="I20" t="s">
-        <v>141</v>
-      </c>
-      <c r="M20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21">
-        <v>31</v>
-      </c>
-      <c r="I21" t="s">
-        <v>141</v>
-      </c>
-      <c r="M21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22">
-        <v>36</v>
-      </c>
-      <c r="I22" t="s">
-        <v>142</v>
-      </c>
-      <c r="M22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23">
-        <v>32</v>
-      </c>
-      <c r="I23" t="s">
-        <v>142</v>
-      </c>
-      <c r="M23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24">
-        <v>35</v>
-      </c>
-      <c r="I24" t="s">
-        <v>143</v>
-      </c>
-      <c r="M24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25">
-        <v>31</v>
-      </c>
-      <c r="I25" t="s">
-        <v>156</v>
-      </c>
-      <c r="M25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26">
-        <v>30</v>
-      </c>
-      <c r="I26" t="s">
-        <v>144</v>
-      </c>
-      <c r="M26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27">
-        <v>29</v>
-      </c>
-      <c r="I27" t="s">
-        <v>144</v>
-      </c>
-      <c r="M27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28">
-        <v>33</v>
-      </c>
-      <c r="I28" t="s">
-        <v>145</v>
-      </c>
-      <c r="M28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29">
-        <v>32</v>
-      </c>
-      <c r="I29" t="s">
-        <v>145</v>
-      </c>
-      <c r="M29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30">
-        <v>28</v>
-      </c>
-      <c r="I30" t="s">
-        <v>146</v>
-      </c>
-      <c r="M30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31">
-        <v>39</v>
-      </c>
-      <c r="I31" t="s">
-        <v>157</v>
-      </c>
-      <c r="M31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32">
-        <v>34</v>
-      </c>
-      <c r="I32" t="s">
-        <v>145</v>
-      </c>
-      <c r="M32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33">
-        <v>29</v>
-      </c>
-      <c r="I33" t="s">
-        <v>145</v>
-      </c>
-      <c r="M33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34">
-        <v>27</v>
-      </c>
-      <c r="I34" t="s">
-        <v>147</v>
-      </c>
-      <c r="M34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35">
-        <v>36</v>
-      </c>
-      <c r="I35" t="s">
-        <v>147</v>
-      </c>
-      <c r="M35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36">
-        <v>24</v>
-      </c>
-      <c r="I36" t="s">
-        <v>148</v>
-      </c>
-      <c r="M36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37">
-        <v>28</v>
-      </c>
-      <c r="I37" t="s">
-        <v>148</v>
-      </c>
-      <c r="M37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38">
-        <v>26</v>
-      </c>
-      <c r="I38" t="s">
-        <v>134</v>
-      </c>
-      <c r="M38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39">
-        <v>34</v>
-      </c>
-      <c r="I39" t="s">
-        <v>139</v>
-      </c>
-      <c r="M39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40">
-        <v>9</v>
-      </c>
-      <c r="I40" t="s">
-        <v>139</v>
-      </c>
-      <c r="M40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41">
-        <v>21</v>
-      </c>
-      <c r="I41" t="s">
-        <v>139</v>
-      </c>
-      <c r="M41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42">
-        <v>33</v>
-      </c>
-      <c r="I42" t="s">
-        <v>149</v>
-      </c>
-      <c r="M42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43">
-        <v>28</v>
-      </c>
-      <c r="I43" t="s">
-        <v>149</v>
-      </c>
-      <c r="M43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44">
-        <v>34</v>
-      </c>
-      <c r="I44" t="s">
-        <v>150</v>
-      </c>
-      <c r="M44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45">
-        <v>28</v>
-      </c>
-      <c r="I45" t="s">
-        <v>150</v>
-      </c>
-      <c r="M45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" t="s">
-        <v>104</v>
-      </c>
-      <c r="E46" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46">
-        <v>29</v>
-      </c>
-      <c r="I46" t="s">
-        <v>151</v>
-      </c>
-      <c r="M46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47">
-        <v>21</v>
-      </c>
-      <c r="I47" t="s">
-        <v>151</v>
-      </c>
-      <c r="M47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48">
-        <v>33</v>
-      </c>
-      <c r="I48" t="s">
-        <v>136</v>
-      </c>
-      <c r="M48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49">
-        <v>27</v>
-      </c>
-      <c r="I49" t="s">
-        <v>140</v>
-      </c>
-      <c r="M49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" t="s">
-        <v>98</v>
-      </c>
-      <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50">
-        <v>12</v>
-      </c>
-      <c r="I50" t="s">
-        <v>152</v>
-      </c>
-      <c r="M50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" t="s">
-        <v>109</v>
-      </c>
-      <c r="E51" t="s">
-        <v>98</v>
-      </c>
-      <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51">
-        <v>17</v>
-      </c>
-      <c r="I51" t="s">
-        <v>138</v>
-      </c>
-      <c r="M51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" t="s">
-        <v>110</v>
-      </c>
-      <c r="E52" t="s">
-        <v>98</v>
-      </c>
-      <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52">
-        <v>14</v>
-      </c>
-      <c r="I52" t="s">
-        <v>153</v>
-      </c>
-      <c r="M52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" t="s">
-        <v>111</v>
-      </c>
-      <c r="E53" t="s">
-        <v>98</v>
-      </c>
-      <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53">
-        <v>13</v>
-      </c>
-      <c r="I53" t="s">
-        <v>153</v>
-      </c>
-      <c r="M53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>112</v>
-      </c>
-      <c r="E54" t="s">
-        <v>113</v>
-      </c>
-      <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54">
-        <v>48</v>
-      </c>
-      <c r="I54" t="s">
-        <v>134</v>
-      </c>
-      <c r="M54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>114</v>
-      </c>
-      <c r="E55" t="s">
-        <v>113</v>
-      </c>
-      <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55">
-        <v>45</v>
-      </c>
-      <c r="I55" t="s">
-        <v>153</v>
-      </c>
-      <c r="M55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" t="s">
-        <v>113</v>
-      </c>
-      <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56">
-        <v>50</v>
-      </c>
-      <c r="I56" t="s">
-        <v>144</v>
-      </c>
-      <c r="M56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" t="s">
-        <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57">
-        <v>50</v>
-      </c>
-      <c r="I57" t="s">
-        <v>157</v>
-      </c>
-      <c r="M57" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" t="s">
-        <v>117</v>
-      </c>
-      <c r="E58" t="s">
-        <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58">
-        <v>50</v>
-      </c>
-      <c r="I58" t="s">
-        <v>151</v>
-      </c>
-      <c r="M58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" t="s">
-        <v>118</v>
-      </c>
-      <c r="E59" t="s">
-        <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59">
-        <v>50</v>
-      </c>
-      <c r="I59" t="s">
-        <v>158</v>
-      </c>
-      <c r="M59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" t="s">
-        <v>119</v>
-      </c>
-      <c r="E60" t="s">
-        <v>27</v>
-      </c>
-      <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s">
-        <v>20</v>
-      </c>
-      <c r="H60">
-        <v>31</v>
-      </c>
-      <c r="I60" t="s">
-        <v>150</v>
-      </c>
-      <c r="M60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" t="s">
-        <v>27</v>
-      </c>
-      <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61">
-        <v>32</v>
-      </c>
-      <c r="I61" t="s">
-        <v>149</v>
-      </c>
-      <c r="M61" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" t="s">
-        <v>121</v>
-      </c>
-      <c r="E62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62">
-        <v>36</v>
-      </c>
-      <c r="I62" t="s">
-        <v>156</v>
-      </c>
-      <c r="M62" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" t="s">
-        <v>122</v>
-      </c>
-      <c r="E63" t="s">
-        <v>27</v>
-      </c>
-      <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
-      <c r="H63">
-        <v>27</v>
-      </c>
-      <c r="I63" t="s">
-        <v>151</v>
-      </c>
-      <c r="M63" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" t="s">
-        <v>123</v>
-      </c>
-      <c r="E64" t="s">
-        <v>27</v>
-      </c>
-      <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64">
-        <v>35</v>
-      </c>
-      <c r="I64" t="s">
-        <v>144</v>
-      </c>
-      <c r="M64" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" t="s">
-        <v>124</v>
-      </c>
-      <c r="E65" t="s">
-        <v>27</v>
-      </c>
-      <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65">
-        <v>40</v>
-      </c>
-      <c r="I65" t="s">
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956E4737-6198-4B8E-ADF8-148D6104AE44}">
-  <sheetPr codeName="Hoja2"/>
-  <dimension ref="C1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7866,19 +6123,19 @@
   <sheetData>
     <row r="1" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
       </c>
       <c r="H1" t="str">
         <f>CONCATENATE(C1,",",D1,",",E1,",",F1,",",G1)</f>
@@ -7890,16 +6147,16 @@
         <v>15419141</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H8" si="0">CONCATENATE(C2,",",D2,",",E2,",",F2,",",G2)</f>
@@ -7911,16 +6168,16 @@
         <v>40662095</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
@@ -7932,16 +6189,16 @@
         <v>46117029</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -7953,16 +6210,16 @@
         <v>45976158</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -7974,16 +6231,16 @@
         <v>40332859</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -7992,19 +6249,19 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -8013,23 +6270,28 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>21838566,AYBAR PEVE,LEANDRO JOEL,l_aybar@undc.edu.pe,oauth2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -8038,30 +6300,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF84012F-06AA-4350-9BF3-B74CD49C74D0}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8075,7 +6337,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <f>COUNTIFS(Sheet!E:E,items!A5)</f>
@@ -8084,7 +6346,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <f>COUNTIFS(Sheet!E:E,items!A6)</f>
@@ -8093,7 +6355,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <f>COUNTIFS(Sheet!E:E,items!A7)</f>
@@ -8102,7 +6364,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <f>COUNTIFS(Sheet!E:E,items!A8)</f>
@@ -8111,7 +6373,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <f>COUNTIFS(Sheet!E:E,items!A9)</f>
@@ -8120,7 +6382,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <f>COUNTIFS(Sheet!E:E,items!A10)</f>
@@ -8129,7 +6391,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <f>COUNTIFS(Sheet!E:E,items!A11)</f>
@@ -8138,7 +6400,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <f>COUNTIFS(Sheet!E:E,items!A12)</f>
@@ -8147,7 +6409,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="B13">
         <f>COUNTIFS(Sheet!E:E,items!A13)</f>

--- a/EXCEL_TRABAJADO/2023-2.xlsx
+++ b/EXCEL_TRABAJADO/2023-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gians\Desktop\dev\UNDC_AUTOMATIZACION\EXCEL_TRABAJADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1167FEF-01AA-4B94-9A02-EBE9D6A0E015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3D2761-B58E-44F1-A465-B4E727A54AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="311">
   <si>
     <t>N°</t>
   </si>
@@ -940,6 +940,21 @@
   </si>
   <si>
     <t>https://aula.undc.edu.pe/course/view.php?id=355</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>AG56 - 611 - EDAFOLOGIA - 3643</t>
+  </si>
+  <si>
+    <t>NOCHE</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=391</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/IhQbHsVHmumJCBSYFiiM0L</t>
   </si>
 </sst>
 </file>
@@ -1433,11 +1448,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AE70"/>
+  <dimension ref="A1:AE71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T69" sqref="T69"/>
+      <selection pane="bottomLeft" activeCell="AB71" sqref="AB71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5938,7 +5953,7 @@
         <v>303</v>
       </c>
       <c r="V68" t="str">
-        <f t="shared" ref="V68:V70" si="11">MID(U68,45,4)</f>
+        <f t="shared" ref="V68:V71" si="11">MID(U68,45,4)</f>
         <v>354</v>
       </c>
       <c r="W68" t="str">
@@ -6066,7 +6081,7 @@
       <c r="T70" t="s">
         <v>236</v>
       </c>
-      <c r="U70" t="s">
+      <c r="U70" s="8" t="s">
         <v>305</v>
       </c>
       <c r="V70" t="str">
@@ -6098,10 +6113,80 @@
         <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/Fhnw0QvZFhGKOPV27MUfye' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>32</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s">
+        <v>306</v>
+      </c>
+      <c r="D71" t="s">
+        <v>307</v>
+      </c>
+      <c r="E71" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" t="s">
+        <v>308</v>
+      </c>
+      <c r="G71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71" t="s">
+        <v>75</v>
+      </c>
+      <c r="S71" t="s">
+        <v>310</v>
+      </c>
+      <c r="T71" t="s">
+        <v>236</v>
+      </c>
+      <c r="U71" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="V71" t="str">
+        <f t="shared" si="11"/>
+        <v>391</v>
+      </c>
+      <c r="W71" t="str">
+        <f t="shared" ref="W71" si="16">MID(D71,1,10)</f>
+        <v>AG56 - 611</v>
+      </c>
+      <c r="X71" t="str">
+        <f t="shared" ref="X71" si="17">TRIM(MID(D71,14,222))</f>
+        <v>EDAFOLOGIA - 3643</v>
+      </c>
+      <c r="Y71" t="str">
+        <f t="shared" ref="Y71" si="18">TRIM(CONCATENATE("AGRONOMIA ",E71,"-",F71,"-",G71," ",LEFT(X71,LEN(X71)-7)))</f>
+        <v>AGRONOMIA V-NOCHE-A EDAFOLOGIA</v>
+      </c>
+      <c r="Z71" t="str">
+        <f t="shared" ref="Z71" si="19">CONCATENATE(B71,"_",E71,"-",IF(F71="MANANA","M",IF(F71="MAÑANA","M",IF(F71="TARDE","T",IF(F71="NOCHE","N","NO EXISITE")))),"-",G71," ",X71)</f>
+        <v>AG_V-N-A EDAFOLOGIA - 3643</v>
+      </c>
+      <c r="AA71" t="str">
+        <f t="shared" ref="AA71" si="20">TRIM(MID(Z71,1,25))</f>
+        <v>AG_V-N-A EDAFOLOGIA - 364</v>
+      </c>
+      <c r="AB71" t="str">
+        <f>CONCATENATE("&lt;p&gt;&lt;a href='",S71,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/IhQbHsVHmumJCBSYFiiM0L' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="U70" r:id="rId1" xr:uid="{40E0ACC9-A317-4F17-AE70-75293C498E70}"/>
+    <hyperlink ref="U71" r:id="rId2" xr:uid="{1E811D99-E623-429D-B660-C5E01AC03687}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6368,7 +6453,7 @@
       </c>
       <c r="B8">
         <f>COUNTIFS(Sheet!E:E,items!A8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6419,7 +6504,7 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14">
         <f>SUM(B4:B13)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
